--- a/SEIR_2_wave/Matlab/data/raw_data/plan_dodavok_sk_cz.xlsx
+++ b/SEIR_2_wave/Matlab/data/raw_data/plan_dodavok_sk_cz.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zuzana.mucka\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zuzana.mucka\Documents\GitHub\corona\SEIR_2_wave\Matlab\data\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9AECCEE-76A2-452B-BDBD-1108595D40A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DED8A6-18F2-4E99-8B09-8FC1FC788D82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0B8E6F3E-21B3-4EE5-8E77-2A11395AB459}"/>
   </bookViews>
@@ -439,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EAA6749-C43E-4ED9-BCB4-6B875FDF9850}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD27"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -834,35 +834,35 @@
         <v>962917.00000000012</v>
       </c>
       <c r="E12">
-        <f>E3*$B12</f>
+        <f t="shared" ref="E12:L13" si="3">E3*$B12</f>
         <v>962917.00000000012</v>
       </c>
       <c r="F12">
-        <f>F3*$B12</f>
+        <f t="shared" si="3"/>
         <v>962917.00000000012</v>
       </c>
       <c r="G12">
-        <f>G3*$B12</f>
+        <f t="shared" si="3"/>
         <v>822617.77253668767</v>
       </c>
       <c r="H12">
-        <f>H3*$B12</f>
+        <f t="shared" si="3"/>
         <v>682318.54507337534</v>
       </c>
       <c r="I12">
-        <f>I3*$B12</f>
+        <f t="shared" si="3"/>
         <v>542019.31761006289</v>
       </c>
       <c r="J12">
-        <f>J3*$B12</f>
+        <f t="shared" si="3"/>
         <v>401720.09014675056</v>
       </c>
       <c r="K12">
-        <f>K3*$B12</f>
+        <f t="shared" si="3"/>
         <v>261420.86268343817</v>
       </c>
       <c r="L12">
-        <f>L3*$B12</f>
+        <f t="shared" si="3"/>
         <v>121121.6352201258</v>
       </c>
     </row>
@@ -882,35 +882,35 @@
         <v>3638830</v>
       </c>
       <c r="E13">
-        <f>E4*$B13</f>
+        <f t="shared" si="3"/>
         <v>3638830</v>
       </c>
       <c r="F13">
-        <f>F4*$B13</f>
+        <f t="shared" si="3"/>
         <v>3638830</v>
       </c>
       <c r="G13">
-        <f>G4*$B13</f>
+        <f t="shared" si="3"/>
         <v>3638830</v>
       </c>
       <c r="H13">
-        <f>H4*$B13</f>
+        <f t="shared" si="3"/>
         <v>3638830</v>
       </c>
       <c r="I13">
-        <f>I4*$B13</f>
+        <f t="shared" si="3"/>
         <v>2911064</v>
       </c>
       <c r="J13">
-        <f>J4*$B13</f>
+        <f t="shared" si="3"/>
         <v>2425886.6666666665</v>
       </c>
       <c r="K13">
-        <f>K4*$B13</f>
+        <f t="shared" si="3"/>
         <v>1334237.6666666665</v>
       </c>
       <c r="L13">
-        <f>L4*$B13</f>
+        <f t="shared" si="3"/>
         <v>727766</v>
       </c>
     </row>
@@ -926,39 +926,39 @@
         <v>275400</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="D14:L14" si="3">D5*$B14</f>
+        <f t="shared" ref="D14:L14" si="4">D5*$B14</f>
         <v>231600</v>
       </c>
       <c r="E14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>187800</v>
       </c>
       <c r="F14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>144000</v>
       </c>
       <c r="G14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>109200</v>
       </c>
       <c r="H14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>74400</v>
       </c>
       <c r="I14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>39600</v>
       </c>
       <c r="J14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26400</v>
       </c>
       <c r="K14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13200</v>
       </c>
       <c r="L14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -968,45 +968,45 @@
       </c>
       <c r="B15">
         <f>C15/B6</f>
-        <v>0.60032085828343318</v>
+        <v>1.2006417165668664</v>
       </c>
       <c r="C15">
-        <v>1203043</v>
+        <v>2406086</v>
       </c>
       <c r="D15">
-        <f>D6*$B15</f>
-        <v>1153216.3687624752</v>
+        <f t="shared" ref="D15:L15" si="5">D6*$B15</f>
+        <v>2306432.7375249504</v>
       </c>
       <c r="E15">
-        <f>E6*$B15</f>
-        <v>1103389.7375249502</v>
+        <f t="shared" si="5"/>
+        <v>2206779.4750499004</v>
       </c>
       <c r="F15">
-        <f>F6*$B15</f>
-        <v>1053563.1062874252</v>
+        <f t="shared" si="5"/>
+        <v>2107126.2125748503</v>
       </c>
       <c r="G15">
-        <f>G6*$B15</f>
-        <v>813434.76297405199</v>
+        <f t="shared" si="5"/>
+        <v>1626869.525948104</v>
       </c>
       <c r="H15">
-        <f>H6*$B15</f>
-        <v>573306.41966067872</v>
+        <f t="shared" si="5"/>
+        <v>1146612.8393213574</v>
       </c>
       <c r="I15">
-        <f>I6*$B15</f>
-        <v>333178.07634730544</v>
+        <f t="shared" si="5"/>
+        <v>666356.15269461088</v>
       </c>
       <c r="J15">
-        <f>J6*$B15</f>
+        <f t="shared" si="5"/>
+        <v>444237.43512974057</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="5"/>
         <v>222118.71756487028</v>
       </c>
-      <c r="K15">
-        <f>K6*$B15</f>
-        <v>111059.35878243514</v>
-      </c>
       <c r="L15">
-        <f>L6*$B15</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1015,43 +1015,43 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <f>SUM(C11:C15)</f>
-        <v>8486276</v>
+        <f t="shared" ref="C16:K16" si="6">SUM(C11:C15)</f>
+        <v>9689319</v>
       </c>
       <c r="D16">
-        <f>SUM(D11:D15)</f>
-        <v>8392649.3687624745</v>
+        <f t="shared" si="6"/>
+        <v>9545865.7375249509</v>
       </c>
       <c r="E16">
-        <f>SUM(E11:E15)</f>
-        <v>8299022.7375249499</v>
+        <f t="shared" si="6"/>
+        <v>9402412.4750498999</v>
       </c>
       <c r="F16">
-        <f>SUM(F11:F15)</f>
-        <v>8205396.1062874254</v>
+        <f t="shared" si="6"/>
+        <v>9258959.2125748508</v>
       </c>
       <c r="G16">
-        <f>SUM(G11:G15)</f>
-        <v>7489760.7646415103</v>
+        <f t="shared" si="6"/>
+        <v>8303195.5276155621</v>
       </c>
       <c r="H16">
-        <f>SUM(H11:H15)</f>
-        <v>6774125.4229955971</v>
+        <f t="shared" si="6"/>
+        <v>7347431.8426562753</v>
       </c>
       <c r="I16">
-        <f>SUM(I11:I15)</f>
-        <v>5330724.0813496821</v>
+        <f t="shared" si="6"/>
+        <v>5663902.1576969875</v>
       </c>
       <c r="J16">
-        <f>SUM(J11:J15)</f>
-        <v>4292596.7017361419</v>
+        <f t="shared" si="6"/>
+        <v>4514715.4193010125</v>
       </c>
       <c r="K16">
-        <f>SUM(K11:K15)</f>
-        <v>2647997.6554559353</v>
+        <f t="shared" si="6"/>
+        <v>2759057.0142383701</v>
       </c>
       <c r="L16">
-        <f t="shared" ref="L16" si="4">SUM(L11:L15)</f>
+        <f t="shared" ref="L16" si="7">SUM(L11:L15)</f>
         <v>1488575.9425090612</v>
       </c>
     </row>
@@ -1060,43 +1060,267 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <f t="shared" ref="C17:K17" si="5">SUM(C11:C14)/2+C15</f>
-        <v>4844659.5</v>
+        <f t="shared" ref="C17:K17" si="8">SUM(C11:C14)/2+C15</f>
+        <v>6047702.5</v>
       </c>
       <c r="D17">
-        <f t="shared" si="5"/>
-        <v>4772932.8687624754</v>
+        <f t="shared" si="8"/>
+        <v>5926149.2375249509</v>
       </c>
       <c r="E17">
-        <f t="shared" si="5"/>
-        <v>4701206.2375249499</v>
+        <f t="shared" si="8"/>
+        <v>5804595.9750498999</v>
       </c>
       <c r="F17">
-        <f t="shared" si="5"/>
-        <v>4629479.6062874254</v>
+        <f t="shared" si="8"/>
+        <v>5683042.7125748508</v>
       </c>
       <c r="G17">
-        <f t="shared" si="5"/>
-        <v>4151597.763807781</v>
+        <f t="shared" si="8"/>
+        <v>4965032.5267818328</v>
       </c>
       <c r="H17">
-        <f t="shared" si="5"/>
-        <v>3673715.9213281376</v>
+        <f t="shared" si="8"/>
+        <v>4247022.3409888167</v>
       </c>
       <c r="I17">
-        <f t="shared" si="5"/>
-        <v>2831951.0788484938</v>
+        <f t="shared" si="8"/>
+        <v>3165129.1551957992</v>
       </c>
       <c r="J17">
-        <f t="shared" si="5"/>
-        <v>2257357.7096505063</v>
+        <f t="shared" si="8"/>
+        <v>2479476.4272153764</v>
       </c>
       <c r="K17">
-        <f t="shared" si="5"/>
-        <v>1379528.5071191851</v>
+        <f t="shared" si="8"/>
+        <v>1490587.8659016204</v>
       </c>
       <c r="L17">
-        <f t="shared" ref="L17" si="6">SUM(L11:L14)/2+L15</f>
+        <f t="shared" ref="L17" si="9">SUM(L11:L14)/2+L15</f>
+        <v>744287.9712545306</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>2406086</v>
+      </c>
+      <c r="D19">
+        <v>2406086</v>
+      </c>
+      <c r="E19">
+        <v>2406086</v>
+      </c>
+      <c r="F19">
+        <v>2406086</v>
+      </c>
+      <c r="G19">
+        <v>2105678.2291307715</v>
+      </c>
+      <c r="H19">
+        <v>1805270.4582615427</v>
+      </c>
+      <c r="I19">
+        <v>1504862.687392314</v>
+      </c>
+      <c r="J19">
+        <v>1216471.2273578546</v>
+      </c>
+      <c r="K19">
+        <v>928079.767323395</v>
+      </c>
+      <c r="L19">
+        <v>639688.30728893552</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>962917</v>
+      </c>
+      <c r="D20">
+        <v>962917.00000000012</v>
+      </c>
+      <c r="E20">
+        <v>962917.00000000012</v>
+      </c>
+      <c r="F20">
+        <v>962917.00000000012</v>
+      </c>
+      <c r="G20">
+        <v>822617.77253668767</v>
+      </c>
+      <c r="H20">
+        <v>682318.54507337534</v>
+      </c>
+      <c r="I20">
+        <v>542019.31761006289</v>
+      </c>
+      <c r="J20">
+        <v>401720.09014675056</v>
+      </c>
+      <c r="K20">
+        <v>261420.86268343817</v>
+      </c>
+      <c r="L20">
+        <v>121121.6352201258</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>3638830</v>
+      </c>
+      <c r="D21">
+        <v>3638830</v>
+      </c>
+      <c r="E21">
+        <v>3638830</v>
+      </c>
+      <c r="F21">
+        <v>3638830</v>
+      </c>
+      <c r="G21">
+        <v>3638830</v>
+      </c>
+      <c r="H21">
+        <v>3638830</v>
+      </c>
+      <c r="I21">
+        <v>2911064</v>
+      </c>
+      <c r="J21">
+        <v>2425886.6666666665</v>
+      </c>
+      <c r="K21">
+        <v>1334237.6666666665</v>
+      </c>
+      <c r="L21">
+        <v>727766</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>275400</v>
+      </c>
+      <c r="D22">
+        <v>231600</v>
+      </c>
+      <c r="E22">
+        <v>187800</v>
+      </c>
+      <c r="F22">
+        <v>144000</v>
+      </c>
+      <c r="G22">
+        <v>109200</v>
+      </c>
+      <c r="H22">
+        <v>74400</v>
+      </c>
+      <c r="I22">
+        <v>39600</v>
+      </c>
+      <c r="J22">
+        <v>26400</v>
+      </c>
+      <c r="K22">
+        <v>13200</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>2406086</v>
+      </c>
+      <c r="D23">
+        <v>2306432.7375249504</v>
+      </c>
+      <c r="E23">
+        <v>2206779.4750499004</v>
+      </c>
+      <c r="F23">
+        <v>2107126.2125748503</v>
+      </c>
+      <c r="G23">
+        <v>1626869.525948104</v>
+      </c>
+      <c r="H23">
+        <v>1146612.8393213574</v>
+      </c>
+      <c r="I23">
+        <v>666356.15269461088</v>
+      </c>
+      <c r="J23">
+        <v>444237.43512974057</v>
+      </c>
+      <c r="K23">
+        <v>222118.71756487028</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>9689319</v>
+      </c>
+      <c r="D24">
+        <v>9545865.7375249509</v>
+      </c>
+      <c r="E24">
+        <v>9402412.4750498999</v>
+      </c>
+      <c r="F24">
+        <v>9258959.2125748508</v>
+      </c>
+      <c r="G24">
+        <v>8303195.5276155621</v>
+      </c>
+      <c r="H24">
+        <v>7347431.8426562753</v>
+      </c>
+      <c r="I24">
+        <v>5663902.1576969875</v>
+      </c>
+      <c r="J24">
+        <v>4514715.4193010125</v>
+      </c>
+      <c r="K24">
+        <v>2759057.0142383701</v>
+      </c>
+      <c r="L24">
+        <v>1488575.9425090612</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>6047702.5</v>
+      </c>
+      <c r="D25">
+        <v>5926149.2375249509</v>
+      </c>
+      <c r="E25">
+        <v>5804595.9750498999</v>
+      </c>
+      <c r="F25">
+        <v>5683042.7125748508</v>
+      </c>
+      <c r="G25">
+        <v>4965032.5267818328</v>
+      </c>
+      <c r="H25">
+        <v>4247022.3409888167</v>
+      </c>
+      <c r="I25">
+        <v>3165129.1551957992</v>
+      </c>
+      <c r="J25">
+        <v>2479476.4272153764</v>
+      </c>
+      <c r="K25">
+        <v>1490587.8659016204</v>
+      </c>
+      <c r="L25">
         <v>744287.9712545306</v>
       </c>
     </row>
